--- a/day35_final_task/server/Sheets/User_Management.xlsx
+++ b/day35_final_task/server/Sheets/User_Management.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Code</t>
   </si>
@@ -40,109 +40,85 @@
     <t>Country</t>
   </si>
   <si>
-    <t>USR007</t>
-  </si>
-  <si>
-    <t>isha patel</t>
-  </si>
-  <si>
-    <t>ishapatel@gmail.com</t>
+    <t>USR004</t>
+  </si>
+  <si>
+    <t>shubham talati</t>
+  </si>
+  <si>
+    <t>subham@gmail.com</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Reading,Dancing,Singing</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>2023-03-23 12:55:39</t>
+  </si>
+  <si>
+    <t>2023-03-24 15:08:17</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>USR003</t>
+  </si>
+  <si>
+    <t>nikita rana</t>
+  </si>
+  <si>
+    <t>nikitaRana@gmail.com</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>Reading,Travelling</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>2023-03-23 12:55:39</t>
-  </si>
-  <si>
-    <t>2023-03-24 18:13:31</t>
+    <t>Reading,Music,Dancing,Singing</t>
+  </si>
+  <si>
+    <t>2023-03-24 12:55:39</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>USR006</t>
+  </si>
+  <si>
+    <t>Priya Modi</t>
+  </si>
+  <si>
+    <t>123@gmail.com</t>
+  </si>
+  <si>
+    <t>Music,Dancing</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>USR004</t>
-  </si>
-  <si>
-    <t>shubham talati</t>
-  </si>
-  <si>
-    <t>subham@gmail.com</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Reading,Dancing,Singing</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>2023-03-24 15:08:17</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>USR003</t>
-  </si>
-  <si>
-    <t>nikita rana</t>
-  </si>
-  <si>
-    <t>nikitaRana@gmail.com</t>
-  </si>
-  <si>
-    <t>Reading,Music,Dancing,Singing</t>
-  </si>
-  <si>
-    <t>2023-03-24 12:55:39</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>USR006</t>
-  </si>
-  <si>
-    <t>Priya Modi</t>
-  </si>
-  <si>
-    <t>123@gmail.com</t>
-  </si>
-  <si>
-    <t>Music,Dancing</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>USR011</t>
-  </si>
-  <si>
-    <t>pinki rana</t>
-  </si>
-  <si>
-    <t>pinkiRana@gmail.com</t>
+    <t>USR010</t>
+  </si>
+  <si>
+    <t>Priya Modi2</t>
+  </si>
+  <si>
+    <t>priya@gmail.com</t>
   </si>
   <si>
     <t>2023-03-24 17:56:42</t>
   </si>
   <si>
-    <t>USR010</t>
-  </si>
-  <si>
-    <t>Priya Modi2</t>
-  </si>
-  <si>
-    <t>priya@gmail.com</t>
+    <t>2023-03-27 16:54:04</t>
   </si>
 </sst>
 </file>
@@ -519,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -606,132 +582,74 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/day35_final_task/server/Sheets/User_Management.xlsx
+++ b/day35_final_task/server/Sheets/User_Management.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Code</t>
   </si>
@@ -40,6 +40,102 @@
     <t>Country</t>
   </si>
   <si>
+    <t>USR003</t>
+  </si>
+  <si>
+    <t>nikita rana</t>
+  </si>
+  <si>
+    <t>nikitaRana@gmail.com</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Reading,Music,Dancing,Singing</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>2023-03-23 12:55:39</t>
+  </si>
+  <si>
+    <t>2023-03-24 12:55:39</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>USR011</t>
+  </si>
+  <si>
+    <t>pinki rana</t>
+  </si>
+  <si>
+    <t>pinkiRana@gmail.com</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>2023-03-24 17:56:42</t>
+  </si>
+  <si>
+    <t>2023-03-24 18:21:12</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>USR010</t>
+  </si>
+  <si>
+    <t>Priya Modi2</t>
+  </si>
+  <si>
+    <t>priya@gmail.com</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Music,Dancing</t>
+  </si>
+  <si>
+    <t>2023-03-27 16:54:04</t>
+  </si>
+  <si>
+    <t>USR006</t>
+  </si>
+  <si>
+    <t>Priya Modi</t>
+  </si>
+  <si>
+    <t>123@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-03-27 17:40:54</t>
+  </si>
+  <si>
+    <t>USR007</t>
+  </si>
+  <si>
+    <t>ronak rana</t>
+  </si>
+  <si>
+    <t>ronak@gamil.com</t>
+  </si>
+  <si>
+    <t>Reading,Travelling,Cricket</t>
+  </si>
+  <si>
+    <t>2023-03-27 17:39:28</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
     <t>USR004</t>
   </si>
   <si>
@@ -49,76 +145,13 @@
     <t>subham@gmail.com</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Reading,Dancing,Singing</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>2023-03-23 12:55:39</t>
-  </si>
-  <si>
     <t>2023-03-24 15:08:17</t>
   </si>
   <si>
     <t>South Africa</t>
-  </si>
-  <si>
-    <t>USR003</t>
-  </si>
-  <si>
-    <t>nikita rana</t>
-  </si>
-  <si>
-    <t>nikitaRana@gmail.com</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Reading,Music,Dancing,Singing</t>
-  </si>
-  <si>
-    <t>2023-03-24 12:55:39</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>USR006</t>
-  </si>
-  <si>
-    <t>Priya Modi</t>
-  </si>
-  <si>
-    <t>123@gmail.com</t>
-  </si>
-  <si>
-    <t>Music,Dancing</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>USR010</t>
-  </si>
-  <si>
-    <t>Priya Modi2</t>
-  </si>
-  <si>
-    <t>priya@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-03-24 17:56:42</t>
-  </si>
-  <si>
-    <t>2023-03-27 16:54:04</t>
   </si>
 </sst>
 </file>
@@ -495,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -576,16 +609,16 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -605,22 +638,22 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -637,19 +670,77 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s">
-        <v>30</v>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/day35_final_task/server/Sheets/User_Management.xlsx
+++ b/day35_final_task/server/Sheets/User_Management.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Code</t>
   </si>
@@ -73,7 +73,7 @@
     <t>pinki rana</t>
   </si>
   <si>
-    <t>pinkiRana@gmail.com</t>
+    <t>pinki@gmail.com</t>
   </si>
   <si>
     <t>N</t>
@@ -88,70 +88,31 @@
     <t>India</t>
   </si>
   <si>
+    <t>USR006</t>
+  </si>
+  <si>
+    <t>Priya Modi</t>
+  </si>
+  <si>
+    <t>modi@gmail.com</t>
+  </si>
+  <si>
+    <t>Music,Dancing</t>
+  </si>
+  <si>
+    <t>2023-03-27 17:40:54</t>
+  </si>
+  <si>
     <t>USR010</t>
   </si>
   <si>
-    <t>Priya Modi2</t>
+    <t>Priya Mishra</t>
   </si>
   <si>
     <t>priya@gmail.com</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Music,Dancing</t>
-  </si>
-  <si>
-    <t>2023-03-27 16:54:04</t>
-  </si>
-  <si>
-    <t>USR006</t>
-  </si>
-  <si>
-    <t>Priya Modi</t>
-  </si>
-  <si>
-    <t>123@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-03-27 17:40:54</t>
-  </si>
-  <si>
-    <t>USR007</t>
-  </si>
-  <si>
-    <t>ronak rana</t>
-  </si>
-  <si>
-    <t>ronak@gamil.com</t>
-  </si>
-  <si>
-    <t>Reading,Travelling,Cricket</t>
-  </si>
-  <si>
-    <t>2023-03-27 17:39:28</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>USR004</t>
-  </si>
-  <si>
-    <t>shubham talati</t>
-  </si>
-  <si>
-    <t>subham@gmail.com</t>
-  </si>
-  <si>
-    <t>Reading,Dancing,Singing</t>
-  </si>
-  <si>
-    <t>2023-03-24 15:08:17</t>
-  </si>
-  <si>
-    <t>South Africa</t>
+    <t>2023-04-04 11:28:25</t>
   </si>
 </sst>
 </file>
@@ -528,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -638,19 +599,19 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
@@ -658,89 +619,31 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
